--- a/downloads/volumetrics/exemplo_volumetrics.xlsx
+++ b/downloads/volumetrics/exemplo_volumetrics.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Mestrado\ForestPyTools\tests\files_for_tests\volumetry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Mestrado\fptoolsdoc_dev\docs\downloads\volumetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74957169-E412-4B12-BB7C-52BFBF5A6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FE148-EC28-4FA8-A98C-E46CFC534BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17505" yWindow="1740" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$996</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -490,7 +493,7 @@
   <dimension ref="A1:H996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9815,7 +9818,7 @@
     </row>
     <row r="359" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B359" s="12">
         <v>22</v>
@@ -9841,7 +9844,7 @@
     </row>
     <row r="360" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B360" s="12">
         <v>22</v>
@@ -9867,7 +9870,7 @@
     </row>
     <row r="361" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B361" s="12">
         <v>22</v>
@@ -26402,6 +26405,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H996" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
